--- a/docs/Admin Task List & Summary (1).xlsx
+++ b/docs/Admin Task List & Summary (1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaheryar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\admin.dright.net\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="174">
   <si>
     <t xml:space="preserve">Sr. NO </t>
   </si>
@@ -685,46 +685,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="40">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -862,6 +832,36 @@
         <name val="Eras Medium ITC"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2436,20 +2436,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:H137" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:H137" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H137"/>
   <sortState ref="A2:F131">
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="10"/>
-    <tableColumn id="1" name="Product" dataDxfId="9"/>
-    <tableColumn id="3" name="Segment" dataDxfId="8"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="7"/>
-    <tableColumn id="4" name="Task" dataDxfId="6"/>
-    <tableColumn id="5" name="Status" dataDxfId="5"/>
-    <tableColumn id="7" name="Comments" dataDxfId="4"/>
-    <tableColumn id="8" name="Deveopler Comment" dataDxfId="3"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="7"/>
+    <tableColumn id="1" name="Product" dataDxfId="6"/>
+    <tableColumn id="3" name="Segment" dataDxfId="5"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="4"/>
+    <tableColumn id="4" name="Task" dataDxfId="3"/>
+    <tableColumn id="5" name="Status" dataDxfId="2"/>
+    <tableColumn id="7" name="Comments" dataDxfId="1"/>
+    <tableColumn id="8" name="Deveopler Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2788,12 +2788,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="4.5" customHeight="1"/>
     <row r="3" spans="1:5" ht="18.75">
@@ -3061,7 +3061,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D141" sqref="D141"/>
+      <selection pane="bottomLeft" activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4714,7 +4714,7 @@
       <c r="G73" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H73" s="19" t="s">
+      <c r="H73" s="18" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6110,10 +6110,12 @@
       <c r="C137" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D137" s="2"/>
+      <c r="D137" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
@@ -6121,15 +6123,15 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F137">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary (1).xlsx
+++ b/docs/Admin Task List & Summary (1).xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="174">
   <si>
     <t xml:space="preserve">Sr. NO </t>
   </si>
@@ -3060,8 +3060,8 @@
   <dimension ref="A1:T137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E135" sqref="E135"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5829,11 +5829,9 @@
       <c r="D124" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>

--- a/docs/Admin Task List & Summary (1).xlsx
+++ b/docs/Admin Task List & Summary (1).xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="174">
   <si>
     <t xml:space="preserve">Sr. NO </t>
   </si>
@@ -3061,7 +3061,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
+      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5349,11 +5349,9 @@
       <c r="D102" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>9</v>
+      <c r="E102" s="1"/>
+      <c r="F102" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -5372,8 +5370,8 @@
         <v>17</v>
       </c>
       <c r="E103" s="1"/>
-      <c r="F103" s="1" t="s">
-        <v>9</v>
+      <c r="F103" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>

--- a/docs/Admin Task List & Summary (1).xlsx
+++ b/docs/Admin Task List & Summary (1).xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="174">
   <si>
     <t xml:space="preserve">Sr. NO </t>
   </si>
@@ -306,15 +306,9 @@
     <t>View</t>
   </si>
   <si>
-    <t>Image Not Submiit</t>
-  </si>
-  <si>
     <t>Sponsors Product</t>
   </si>
   <si>
-    <t>Images not submit</t>
-  </si>
-  <si>
     <t>Discount Center Offer</t>
   </si>
   <si>
@@ -513,9 +507,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t xml:space="preserve">Its in Clinta </t>
-  </si>
-  <si>
     <t>Its on Documentation Segment Kindly Check Properly</t>
   </si>
   <si>
@@ -559,6 +550,15 @@
   </si>
   <si>
     <t>Specialities-Gallery</t>
+  </si>
+  <si>
+    <t>Its in Clinta Apanel</t>
+  </si>
+  <si>
+    <t>Already Explained</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -3059,9 +3059,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3096,10 +3096,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
@@ -3120,10 +3120,10 @@
         <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75">
@@ -3144,10 +3144,10 @@
         <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
@@ -3168,7 +3168,7 @@
         <v>53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -3190,7 +3190,7 @@
         <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -3230,10 +3230,10 @@
         <v>53</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75">
@@ -3254,7 +3254,7 @@
         <v>53</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -3276,7 +3276,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -3298,7 +3298,7 @@
         <v>53</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -3320,10 +3320,10 @@
         <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75">
@@ -3344,10 +3344,10 @@
         <v>53</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75">
@@ -3368,7 +3368,7 @@
         <v>53</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -3390,10 +3390,10 @@
         <v>53</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75">
@@ -3414,7 +3414,7 @@
         <v>53</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -3436,7 +3436,7 @@
         <v>53</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -3458,10 +3458,10 @@
         <v>53</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75">
@@ -3482,7 +3482,7 @@
         <v>53</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -3504,10 +3504,10 @@
         <v>53</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75">
@@ -3528,7 +3528,7 @@
         <v>53</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -3550,7 +3550,7 @@
         <v>53</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -3572,7 +3572,7 @@
         <v>53</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -3594,10 +3594,10 @@
         <v>53</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75">
@@ -3618,7 +3618,7 @@
         <v>53</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -3640,7 +3640,7 @@
         <v>53</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -3662,7 +3662,7 @@
         <v>53</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -3684,7 +3684,7 @@
         <v>53</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -3706,9 +3706,11 @@
         <v>53</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="15.75">
       <c r="A29" s="1">
@@ -3728,7 +3730,7 @@
         <v>53</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -3750,7 +3752,7 @@
         <v>53</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -3772,7 +3774,7 @@
         <v>53</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -3794,7 +3796,7 @@
         <v>53</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -3816,7 +3818,7 @@
         <v>53</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -3838,7 +3840,7 @@
         <v>53</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -3860,7 +3862,7 @@
         <v>53</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -3882,7 +3884,7 @@
         <v>53</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -3904,9 +3906,11 @@
         <v>53</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="15.75">
       <c r="A38" s="1">
@@ -3926,7 +3930,7 @@
         <v>53</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -3948,7 +3952,7 @@
         <v>53</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -3970,7 +3974,7 @@
         <v>53</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -3992,7 +3996,7 @@
         <v>53</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -4014,9 +4018,11 @@
         <v>53</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H42" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="15.75">
       <c r="A43" s="1">
@@ -4036,7 +4042,7 @@
         <v>53</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -4058,7 +4064,7 @@
         <v>53</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -4080,7 +4086,7 @@
         <v>53</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -4102,10 +4108,10 @@
         <v>53</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75">
@@ -4126,10 +4132,10 @@
         <v>53</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75">
@@ -4150,10 +4156,10 @@
         <v>53</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="15.75">
@@ -4174,10 +4180,10 @@
         <v>53</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="15.75">
@@ -4198,10 +4204,10 @@
         <v>53</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="15.75">
@@ -4222,7 +4228,7 @@
         <v>53</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H51" s="2"/>
     </row>
@@ -4237,17 +4243,17 @@
         <v>65</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="15.75">
@@ -4268,7 +4274,7 @@
         <v>53</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -4390,7 +4396,7 @@
         <v>53</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H59" s="2"/>
     </row>
@@ -4412,7 +4418,7 @@
         <v>53</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H60" s="2"/>
     </row>
@@ -4434,10 +4440,10 @@
         <v>53</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="15.75">
@@ -4458,9 +4464,11 @@
         <v>53</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H62" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="63" spans="1:20" ht="15.75">
       <c r="A63" s="1">
@@ -4480,7 +4488,7 @@
         <v>53</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H63" s="2"/>
       <c r="T63">
@@ -4506,10 +4514,10 @@
         <v>53</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75">
@@ -4530,7 +4538,7 @@
         <v>53</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H65" s="2"/>
     </row>
@@ -4552,10 +4560,10 @@
         <v>53</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75">
@@ -4576,10 +4584,10 @@
         <v>53</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75">
@@ -4600,10 +4608,10 @@
         <v>53</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75">
@@ -4624,7 +4632,7 @@
         <v>53</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H69" s="2"/>
     </row>
@@ -4646,7 +4654,7 @@
         <v>53</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H70" s="2"/>
     </row>
@@ -4668,7 +4676,7 @@
         <v>53</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H71" s="2"/>
     </row>
@@ -4690,7 +4698,7 @@
         <v>53</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H72" s="2"/>
     </row>
@@ -4712,10 +4720,10 @@
         <v>53</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75">
@@ -4736,7 +4744,7 @@
         <v>53</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H74" s="2"/>
     </row>
@@ -4758,7 +4766,7 @@
         <v>53</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H75" s="2"/>
     </row>
@@ -4780,7 +4788,7 @@
         <v>53</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H76" s="2"/>
     </row>
@@ -4802,7 +4810,7 @@
         <v>53</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H77" s="2"/>
     </row>
@@ -4824,7 +4832,7 @@
         <v>53</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H78" s="2"/>
     </row>
@@ -4846,7 +4854,7 @@
         <v>53</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H79" s="2"/>
     </row>
@@ -4868,7 +4876,7 @@
         <v>53</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H80" s="2"/>
     </row>
@@ -4890,10 +4898,10 @@
         <v>53</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75">
@@ -4914,7 +4922,7 @@
         <v>53</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H82" s="2"/>
     </row>
@@ -4931,7 +4939,9 @@
       <c r="D83" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F83" s="1" t="s">
         <v>9</v>
       </c>
@@ -4951,7 +4961,9 @@
       <c r="D84" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F84" s="1" t="s">
         <v>9</v>
       </c>
@@ -4976,7 +4988,7 @@
         <v>53</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H85" s="2"/>
     </row>
@@ -4998,7 +5010,7 @@
         <v>53</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H86" s="2"/>
     </row>
@@ -5020,7 +5032,7 @@
         <v>53</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H87" s="2"/>
     </row>
@@ -5042,7 +5054,7 @@
         <v>53</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H88" s="2"/>
     </row>
@@ -5064,7 +5076,7 @@
         <v>53</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H89" s="2"/>
     </row>
@@ -5086,9 +5098,11 @@
         <v>53</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H90" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="91" spans="1:8" ht="15.75">
       <c r="A91" s="1">
@@ -5128,7 +5142,7 @@
         <v>53</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H92" s="2"/>
     </row>
@@ -5150,7 +5164,7 @@
         <v>53</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H93" s="2"/>
     </row>
@@ -5172,7 +5186,7 @@
         <v>53</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H94" s="2"/>
     </row>
@@ -5194,7 +5208,7 @@
         <v>53</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H95" s="2"/>
     </row>
@@ -5216,7 +5230,7 @@
         <v>53</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H96" s="2"/>
     </row>
@@ -5238,7 +5252,7 @@
         <v>53</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H97" s="2"/>
     </row>
@@ -5260,10 +5274,10 @@
         <v>53</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75">
@@ -5284,7 +5298,7 @@
         <v>53</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H99" s="2"/>
     </row>
@@ -5301,16 +5315,16 @@
       <c r="D100" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H100" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="101" spans="1:8" ht="15.75">
       <c r="A101" s="1">
@@ -5320,19 +5334,17 @@
         <v>28</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="E101" s="2"/>
       <c r="F101" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H101" s="2"/>
     </row>
@@ -5394,7 +5406,7 @@
         <v>53</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H104" s="2"/>
     </row>
@@ -5416,7 +5428,7 @@
         <v>53</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H105" s="2"/>
     </row>
@@ -5438,7 +5450,7 @@
         <v>53</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H106" s="2"/>
     </row>
@@ -5455,14 +5467,12 @@
       <c r="D107" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H107" s="2"/>
     </row>
@@ -5504,10 +5514,10 @@
         <v>53</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75">
@@ -5528,10 +5538,10 @@
         <v>53</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75">
@@ -5552,7 +5562,7 @@
         <v>53</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H111" s="2"/>
     </row>
@@ -5574,7 +5584,7 @@
         <v>53</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H112" s="2"/>
     </row>
@@ -5596,10 +5606,10 @@
         <v>53</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75">
@@ -5620,7 +5630,7 @@
         <v>53</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H114" s="2"/>
     </row>
@@ -5652,7 +5662,7 @@
         <v>14</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>11</v>
@@ -5672,7 +5682,7 @@
         <v>14</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>11</v>
@@ -5702,7 +5712,7 @@
         <v>53</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H118" s="2"/>
     </row>
@@ -5724,7 +5734,7 @@
         <v>53</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H119" s="2"/>
     </row>
@@ -5746,7 +5756,7 @@
         <v>53</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H120" s="2"/>
     </row>
@@ -5768,7 +5778,7 @@
         <v>53</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H121" s="2"/>
     </row>
@@ -5790,7 +5800,7 @@
         <v>53</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H122" s="2"/>
     </row>
@@ -5852,7 +5862,7 @@
         <v>53</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H125" s="2"/>
     </row>
@@ -5874,7 +5884,7 @@
         <v>53</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H126" s="2"/>
     </row>
@@ -5896,10 +5906,10 @@
         <v>53</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75">
@@ -5920,7 +5930,7 @@
         <v>53</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H128" s="2"/>
     </row>
@@ -5942,7 +5952,7 @@
         <v>53</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H129" s="2"/>
     </row>
@@ -5964,7 +5974,7 @@
         <v>53</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H130" s="2"/>
     </row>
@@ -5986,7 +5996,7 @@
         <v>53</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H131" s="2"/>
     </row>
@@ -6008,7 +6018,7 @@
         <v>53</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H132" s="2"/>
     </row>
@@ -6030,7 +6040,7 @@
         <v>53</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H133" s="2"/>
     </row>
@@ -6052,7 +6062,7 @@
         <v>53</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H134" s="2"/>
     </row>
@@ -6064,7 +6074,7 @@
         <v>6</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>11</v>
@@ -6084,7 +6094,7 @@
         <v>6</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>11</v>
@@ -6104,7 +6114,7 @@
         <v>64</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>11</v>

--- a/docs/Admin Task List & Summary (1).xlsx
+++ b/docs/Admin Task List & Summary (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -694,7 +694,317 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="94">
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1032,13 +1342,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Shaharyar Malik" refreshedDate="45614.668207060182" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="135">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45628.514425231479" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="136">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
-  <cacheFields count="6">
+  <cacheFields count="8">
     <cacheField name="Sr. NO " numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="135"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="136"/>
     </cacheField>
     <cacheField name="Product" numFmtId="0">
       <sharedItems count="18">
@@ -1078,6 +1388,12 @@
         <m u="1"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="Comments" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Deveopler Comment" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -1088,7 +1404,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="135">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="136">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -1096,6 +1412,8 @@
     <s v="Listing"/>
     <m/>
     <x v="0"/>
+    <s v="All Names not shown??"/>
+    <s v="Maybe Fault in ur Data entry"/>
   </r>
   <r>
     <n v="2"/>
@@ -1104,6 +1422,8 @@
     <s v="Filters"/>
     <m/>
     <x v="0"/>
+    <s v="Only one filter, to search member using name"/>
+    <s v="Completed"/>
   </r>
   <r>
     <n v="3"/>
@@ -1112,6 +1432,8 @@
     <s v="Shift to Preimum"/>
     <m/>
     <x v="0"/>
+    <s v="How is that working?"/>
+    <m/>
   </r>
   <r>
     <n v="4"/>
@@ -1120,6 +1442,8 @@
     <s v="View"/>
     <m/>
     <x v="0"/>
+    <s v="Undefined, the link takes you somwhere else"/>
+    <m/>
   </r>
   <r>
     <n v="5"/>
@@ -1128,6 +1452,8 @@
     <m/>
     <m/>
     <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="6"/>
@@ -1136,6 +1462,8 @@
     <s v="Listing"/>
     <m/>
     <x v="0"/>
+    <s v="Name must be reqiured before entering category"/>
+    <s v="Done"/>
   </r>
   <r>
     <n v="7"/>
@@ -1144,6 +1472,8 @@
     <s v="Add"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="8"/>
@@ -1152,6 +1482,8 @@
     <s v="Delete"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="9"/>
@@ -1160,6 +1492,8 @@
     <s v="Update"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="10"/>
@@ -1168,6 +1502,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Issue in Update , Purpose of these FAQs?"/>
+    <s v="Its in Clinta Apanel"/>
   </r>
   <r>
     <n v="11"/>
@@ -1176,6 +1512,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Where on patient portal? Unnecessary last row"/>
+    <s v="Its on Documentation Segment Kindly Check Properly"/>
   </r>
   <r>
     <n v="12"/>
@@ -1184,6 +1522,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Same as point 41-43 except for Read"/>
+    <m/>
   </r>
   <r>
     <n v="13"/>
@@ -1192,6 +1532,8 @@
     <s v="Listing"/>
     <m/>
     <x v="0"/>
+    <s v="No available data!!!"/>
+    <s v="Becoz no Data entry in Database"/>
   </r>
   <r>
     <n v="14"/>
@@ -1200,6 +1542,8 @@
     <s v="Add"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="15"/>
@@ -1208,6 +1552,8 @@
     <s v="Delete"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="16"/>
@@ -1216,6 +1562,8 @@
     <s v="Update"/>
     <m/>
     <x v="0"/>
+    <s v="Not working correctly, remove extra line space when &quot;Enter&quot; clicked"/>
+    <s v="Could you please clarify what’s not working"/>
   </r>
   <r>
     <n v="17"/>
@@ -1224,6 +1572,8 @@
     <s v="Listing"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="18"/>
@@ -1232,6 +1582,8 @@
     <s v="Add"/>
     <m/>
     <x v="0"/>
+    <s v="Can't add nutritional items. Not added on patient portal!!"/>
+    <s v="Could you please clarify "/>
   </r>
   <r>
     <n v="19"/>
@@ -1240,6 +1592,8 @@
     <s v="Delete"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="20"/>
@@ -1248,6 +1602,8 @@
     <s v="Update"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="21"/>
@@ -1256,6 +1612,8 @@
     <s v="Details and Update"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="22"/>
@@ -1264,6 +1622,8 @@
     <s v="Add"/>
     <m/>
     <x v="0"/>
+    <s v="Can't add nutritional items. Not added on patient portal!!"/>
+    <s v="Could you please clarify "/>
   </r>
   <r>
     <n v="23"/>
@@ -1272,6 +1632,8 @@
     <s v="Update"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="24"/>
@@ -1280,6 +1642,8 @@
     <s v="Delete"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="25"/>
@@ -1288,6 +1652,8 @@
     <s v="Listing"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="26"/>
@@ -1296,6 +1662,8 @@
     <s v="Details and Update"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="27"/>
@@ -1304,6 +1672,8 @@
     <s v="Add"/>
     <m/>
     <x v="0"/>
+    <s v="Not added on Patient Portal"/>
+    <s v="Already Explained"/>
   </r>
   <r>
     <n v="28"/>
@@ -1312,6 +1682,8 @@
     <s v="Update"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="29"/>
@@ -1320,6 +1692,8 @@
     <s v="Delete"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="30"/>
@@ -1328,6 +1702,8 @@
     <s v="Listing"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="31"/>
@@ -1336,6 +1712,8 @@
     <s v="Details and Update"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="32"/>
@@ -1344,6 +1722,8 @@
     <s v="Add"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="33"/>
@@ -1352,6 +1732,8 @@
     <s v="Update"/>
     <m/>
     <x v="0"/>
+    <s v="Not working correctly, remove extra line space when &quot;Enter&quot; clicked"/>
+    <m/>
   </r>
   <r>
     <n v="34"/>
@@ -1360,6 +1742,8 @@
     <s v="Delete"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="35"/>
@@ -1368,6 +1752,8 @@
     <s v="Listing"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="36"/>
@@ -1376,6 +1762,8 @@
     <s v="Add"/>
     <m/>
     <x v="0"/>
+    <s v="Not added on Patient Portal"/>
+    <s v="Already Explained"/>
   </r>
   <r>
     <n v="37"/>
@@ -1384,6 +1772,8 @@
     <s v="Update"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="38"/>
@@ -1392,6 +1782,8 @@
     <s v="Delete"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="39"/>
@@ -1400,6 +1792,8 @@
     <s v="Listing"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="40"/>
@@ -1408,6 +1802,8 @@
     <s v="Details and Update"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="41"/>
@@ -1416,6 +1812,8 @@
     <s v="Add"/>
     <m/>
     <x v="0"/>
+    <s v="Not added on Patient Portal"/>
+    <s v="Already Explained"/>
   </r>
   <r>
     <n v="42"/>
@@ -1424,6 +1822,8 @@
     <s v="Update"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="43"/>
@@ -1432,6 +1832,8 @@
     <s v="Delete"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="44"/>
@@ -1440,6 +1842,8 @@
     <s v="Listing"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="45"/>
@@ -1448,6 +1852,8 @@
     <s v="Details and Update"/>
     <m/>
     <x v="0"/>
+    <s v="Error 404"/>
+    <s v="Done"/>
   </r>
   <r>
     <n v="46"/>
@@ -1456,6 +1862,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Where on patient portal? Update not working correctly"/>
+    <s v="In Doucmentation segments "/>
   </r>
   <r>
     <n v="47"/>
@@ -1464,6 +1872,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Name must be required before entering category and type. "/>
+    <s v="Completed"/>
   </r>
   <r>
     <n v="48"/>
@@ -1472,6 +1882,8 @@
     <s v="Filters"/>
     <m/>
     <x v="0"/>
+    <s v="Filter required based on category and type as well"/>
+    <s v="Completed"/>
   </r>
   <r>
     <n v="49"/>
@@ -1480,6 +1892,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Name must be required before entering category and type."/>
+    <s v="Completed"/>
   </r>
   <r>
     <n v="50"/>
@@ -1488,14 +1902,18 @@
     <s v="Filters"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="51"/>
     <x v="6"/>
     <s v="Admin Activity"/>
-    <s v="Crud"/>
-    <m/>
-    <x v="0"/>
+    <s v="Lisiting"/>
+    <m/>
+    <x v="0"/>
+    <s v="No crud required and present in Admin Activity!!?"/>
+    <s v="no Crud "/>
   </r>
   <r>
     <n v="52"/>
@@ -1504,6 +1922,8 @@
     <s v="Filters"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="53"/>
@@ -1512,6 +1932,8 @@
     <s v="Listing"/>
     <m/>
     <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="54"/>
@@ -1520,6 +1942,8 @@
     <s v="Add"/>
     <m/>
     <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="55"/>
@@ -1528,6 +1952,8 @@
     <s v="Update"/>
     <m/>
     <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="56"/>
@@ -1536,6 +1962,8 @@
     <s v="Delete"/>
     <m/>
     <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="57"/>
@@ -1544,6 +1972,8 @@
     <s v="Filters"/>
     <m/>
     <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="58"/>
@@ -1552,6 +1982,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="No webite link in update? Sub-Domain Creation? Expiry?"/>
+    <m/>
   </r>
   <r>
     <n v="59"/>
@@ -1560,6 +1992,8 @@
     <s v="Filters"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="60"/>
@@ -1568,6 +2002,8 @@
     <s v="Login"/>
     <m/>
     <x v="0"/>
+    <s v="Where in A-Panel??"/>
+    <s v="Main Login Page…"/>
   </r>
   <r>
     <n v="61"/>
@@ -1576,6 +2012,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Main/Head Row should have relevant names with the content. What is total images column about?? Usage of add heading??"/>
+    <s v="Done"/>
   </r>
   <r>
     <n v="62"/>
@@ -1584,6 +2022,8 @@
     <s v="Filters"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="63"/>
@@ -1592,6 +2032,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Check new Medicine??? Add not working. Sort Number?? Data without company name?? Data deletion not working"/>
+    <s v="Done apenl link (https://www.clinta.biz/apanel/module/company/list)"/>
   </r>
   <r>
     <n v="64"/>
@@ -1600,6 +2042,8 @@
     <s v="Filter"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="65"/>
@@ -1608,6 +2052,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Sort Order should start from 1 to avoid confusion"/>
+    <s v="already sorted "/>
   </r>
   <r>
     <n v="66"/>
@@ -1616,6 +2062,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Show Medicine Name in the Table!!"/>
+    <s v="Done"/>
   </r>
   <r>
     <n v="67"/>
@@ -1624,6 +2072,8 @@
     <s v="Filter"/>
     <m/>
     <x v="0"/>
+    <s v="Not working based on medicine name!"/>
+    <s v="Done"/>
   </r>
   <r>
     <n v="68"/>
@@ -1632,6 +2082,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="69"/>
@@ -1640,6 +2092,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Sort Order issue"/>
+    <m/>
   </r>
   <r>
     <n v="70"/>
@@ -1648,6 +2102,8 @@
     <s v="Listing"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="71"/>
@@ -1656,6 +2112,8 @@
     <s v="Add"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="72"/>
@@ -1664,6 +2122,8 @@
     <s v="Update"/>
     <m/>
     <x v="0"/>
+    <s v="How to add additional info? Like in blood groups..."/>
+    <s v="https://www.clinta.biz/apanel/module/extended_default_lookups/list"/>
   </r>
   <r>
     <n v="73"/>
@@ -1672,6 +2132,8 @@
     <s v="Delete"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="74"/>
@@ -1680,6 +2142,8 @@
     <s v="Filters"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="75"/>
@@ -1688,6 +2152,8 @@
     <s v="List"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="76"/>
@@ -1696,6 +2162,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Same as point 10 except for Read"/>
+    <m/>
   </r>
   <r>
     <n v="77"/>
@@ -1704,6 +2172,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Same as point 11 except for Read"/>
+    <m/>
   </r>
   <r>
     <n v="78"/>
@@ -1712,6 +2182,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Same as point 46 except for Read"/>
+    <m/>
   </r>
   <r>
     <n v="79"/>
@@ -1720,6 +2192,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Same as point 32-34 except for Read"/>
+    <m/>
   </r>
   <r>
     <n v="80"/>
@@ -1728,6 +2202,8 @@
     <s v="Filter"/>
     <m/>
     <x v="0"/>
+    <s v="No filter present!!"/>
+    <s v="Not in Clinta apenl"/>
   </r>
   <r>
     <n v="81"/>
@@ -1736,22 +2212,28 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Same as points 14-16 except for Read"/>
+    <m/>
   </r>
   <r>
     <n v="82"/>
     <x v="10"/>
     <s v="ClinTa Extended"/>
     <s v="Filter"/>
-    <m/>
+    <s v="Working"/>
     <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="83"/>
     <x v="10"/>
     <s v="ClinTa Extended"/>
     <s v="Crud"/>
-    <m/>
+    <s v="Working"/>
     <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="84"/>
@@ -1760,6 +2242,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Same as points 18-20 except for Read"/>
+    <m/>
   </r>
   <r>
     <n v="85"/>
@@ -1768,6 +2252,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Same as points 36-38 except for Read"/>
+    <m/>
   </r>
   <r>
     <n v="86"/>
@@ -1776,6 +2262,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Same as points 27-30 except for Read"/>
+    <m/>
   </r>
   <r>
     <n v="87"/>
@@ -1784,6 +2272,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Same as points 41-43, 12"/>
+    <m/>
   </r>
   <r>
     <n v="88"/>
@@ -1792,6 +2282,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Same as points 22-24 except for Read"/>
+    <m/>
   </r>
   <r>
     <n v="89"/>
@@ -1800,6 +2292,8 @@
     <s v="Add"/>
     <m/>
     <x v="0"/>
+    <s v="Error! Undefined"/>
+    <s v="Fixed"/>
   </r>
   <r>
     <n v="90"/>
@@ -1808,6 +2302,8 @@
     <s v="Filter"/>
     <m/>
     <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="91"/>
@@ -1816,6 +2312,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Same as points 71-73, except for read"/>
+    <m/>
   </r>
   <r>
     <n v="92"/>
@@ -1824,6 +2322,8 @@
     <s v="Filter"/>
     <m/>
     <x v="0"/>
+    <s v="Same as point 74"/>
+    <m/>
   </r>
   <r>
     <n v="93"/>
@@ -1832,6 +2332,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Same as point 47"/>
+    <m/>
   </r>
   <r>
     <n v="94"/>
@@ -1840,6 +2342,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Same as point 49"/>
+    <m/>
   </r>
   <r>
     <n v="95"/>
@@ -1848,6 +2352,8 @@
     <s v="Filter"/>
     <m/>
     <x v="0"/>
+    <s v="Same as point 48"/>
+    <m/>
   </r>
   <r>
     <n v="96"/>
@@ -1856,6 +2362,8 @@
     <s v="Filter"/>
     <m/>
     <x v="0"/>
+    <s v="Same as point 50"/>
+    <m/>
   </r>
   <r>
     <n v="97"/>
@@ -1864,6 +2372,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Working but No Data Available !!"/>
+    <s v="no Data enter"/>
   </r>
   <r>
     <n v="98"/>
@@ -1872,30 +2382,38 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="99"/>
     <x v="13"/>
     <s v="Sponsors"/>
     <s v="Crud"/>
-    <s v="Image Not Submiit"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <s v="Image not shown even after submitting"/>
+    <s v="Fixed"/>
   </r>
   <r>
     <n v="100"/>
     <x v="13"/>
     <s v="Sponsors Product"/>
     <s v="Crud"/>
-    <s v="Image Not Submiit"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <s v="Image not shown even after submitting"/>
+    <m/>
   </r>
   <r>
     <n v="101"/>
     <x v="13"/>
     <s v="Doctor Websites"/>
     <s v="Crud"/>
-    <s v="Image Not Submiit"/>
-    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="102"/>
@@ -1903,7 +2421,9 @@
     <s v="Doctor Websites"/>
     <s v="Filter"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="103"/>
@@ -1912,6 +2432,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Takes loading time, edit not working"/>
+    <m/>
   </r>
   <r>
     <n v="104"/>
@@ -1920,6 +2442,8 @@
     <s v="Filter"/>
     <m/>
     <x v="0"/>
+    <s v="Not working, Ajax Error"/>
+    <m/>
   </r>
   <r>
     <n v="105"/>
@@ -1928,14 +2452,18 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="106"/>
     <x v="13"/>
     <s v="General Banners"/>
     <s v="Crud"/>
-    <s v="Images not submit"/>
-    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <s v="Solution?"/>
+    <m/>
   </r>
   <r>
     <n v="107"/>
@@ -1943,7 +2471,9 @@
     <s v="Branches"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="108"/>
@@ -1952,6 +2482,8 @@
     <s v="Add"/>
     <m/>
     <x v="0"/>
+    <s v="Working, add asterisk to show mandatory fields"/>
+    <s v="Done"/>
   </r>
   <r>
     <n v="109"/>
@@ -1960,6 +2492,8 @@
     <s v="Update"/>
     <m/>
     <x v="0"/>
+    <s v="Not working correctly"/>
+    <s v="Done"/>
   </r>
   <r>
     <n v="110"/>
@@ -1968,6 +2502,8 @@
     <s v="Delete"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="111"/>
@@ -1976,6 +2512,8 @@
     <s v="List"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="112"/>
@@ -1984,6 +2522,8 @@
     <s v="ADD Recipt"/>
     <m/>
     <x v="0"/>
+    <s v="Total Receipts 0 even after adding!"/>
+    <s v="Done"/>
   </r>
   <r>
     <n v="113"/>
@@ -1992,6 +2532,8 @@
     <s v="Filter"/>
     <m/>
     <x v="0"/>
+    <s v="Takes a lot of time"/>
+    <m/>
   </r>
   <r>
     <n v="114"/>
@@ -2000,6 +2542,8 @@
     <s v="Crud"/>
     <m/>
     <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="115"/>
@@ -2008,6 +2552,8 @@
     <s v="Crud"/>
     <m/>
     <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="116"/>
@@ -2016,6 +2562,8 @@
     <s v="Crud"/>
     <m/>
     <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="117"/>
@@ -2024,6 +2572,8 @@
     <s v="Add"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="118"/>
@@ -2032,6 +2582,8 @@
     <s v="Update"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="119"/>
@@ -2040,6 +2592,8 @@
     <s v="Delete"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="120"/>
@@ -2048,6 +2602,8 @@
     <s v="List"/>
     <m/>
     <x v="0"/>
+    <s v="No data available"/>
+    <m/>
   </r>
   <r>
     <n v="121"/>
@@ -2056,6 +2612,8 @@
     <s v="Add"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="122"/>
@@ -2064,14 +2622,18 @@
     <s v="Update"/>
     <m/>
     <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="123"/>
     <x v="15"/>
     <s v="Profile"/>
     <s v="Crud"/>
-    <s v="Image Not Submiit"/>
-    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="124"/>
@@ -2080,6 +2642,8 @@
     <s v="List"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="125"/>
@@ -2088,6 +2652,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="126"/>
@@ -2096,6 +2662,8 @@
     <s v="Crud"/>
     <m/>
     <x v="0"/>
+    <s v="MAC Address and Expiry Date not shown in Details after adding new data"/>
+    <s v="Fixed"/>
   </r>
   <r>
     <n v="127"/>
@@ -2104,6 +2672,8 @@
     <s v="Filter"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="128"/>
@@ -2112,6 +2682,8 @@
     <s v="Update"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="129"/>
@@ -2120,6 +2692,8 @@
     <s v="Delete"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="130"/>
@@ -2128,6 +2702,8 @@
     <s v="Listing"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="131"/>
@@ -2136,6 +2712,8 @@
     <s v="Update"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="132"/>
@@ -2144,6 +2722,8 @@
     <s v="Delete"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="133"/>
@@ -2152,6 +2732,8 @@
     <s v="List"/>
     <m/>
     <x v="0"/>
+    <s v="Working"/>
+    <m/>
   </r>
   <r>
     <n v="134"/>
@@ -2160,6 +2742,8 @@
     <s v="Crud"/>
     <m/>
     <x v="1"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <n v="135"/>
@@ -2168,14 +2752,26 @@
     <s v="Crud"/>
     <m/>
     <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="136"/>
+    <x v="6"/>
+    <s v="Specialities-Gallery"/>
+    <s v="Crud"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
+  <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="19">
@@ -2211,6 +2807,8 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -2289,86 +2887,86 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="39">
+    <format dxfId="93">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="92">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="91">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="90">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="89">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="88">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="83">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="82">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="81">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="80">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="79">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="78">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="73">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="72">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2377,7 +2975,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="71">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2386,7 +2984,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="70">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2395,7 +2993,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2404,7 +3002,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="68">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2413,7 +3011,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2436,20 +3034,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:H137" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:H137" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="A1:H137"/>
   <sortState ref="A2:F131">
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="7"/>
-    <tableColumn id="1" name="Product" dataDxfId="6"/>
-    <tableColumn id="3" name="Segment" dataDxfId="5"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="4"/>
-    <tableColumn id="4" name="Task" dataDxfId="3"/>
-    <tableColumn id="5" name="Status" dataDxfId="2"/>
-    <tableColumn id="7" name="Comments" dataDxfId="1"/>
-    <tableColumn id="8" name="Deveopler Comment" dataDxfId="0"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="61"/>
+    <tableColumn id="1" name="Product" dataDxfId="60"/>
+    <tableColumn id="3" name="Segment" dataDxfId="59"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="58"/>
+    <tableColumn id="4" name="Task" dataDxfId="57"/>
+    <tableColumn id="5" name="Status" dataDxfId="56"/>
+    <tableColumn id="7" name="Comments" dataDxfId="55"/>
+    <tableColumn id="8" name="Deveopler Comment" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2774,17 +3372,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1">
@@ -2825,10 +3424,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="9">
         <v>6</v>
@@ -2839,10 +3438,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="9">
         <v>18</v>
@@ -2877,11 +3476,9 @@
         <v>28</v>
       </c>
       <c r="B9" s="9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9">
-        <v>2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C9" s="9"/>
       <c r="D9" s="9">
         <v>8</v>
       </c>
@@ -2976,13 +3573,13 @@
         <v>64</v>
       </c>
       <c r="B17" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="9">
         <v>5</v>
       </c>
       <c r="D17" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75">
@@ -3038,13 +3635,13 @@
         <v>80</v>
       </c>
       <c r="B22" s="9">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C22" s="9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D22" s="9">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3059,9 +3656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G132" sqref="G132"/>
+      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5491,7 +6088,7 @@
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -6129,15 +6726,15 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F137">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary (1).xlsx
+++ b/docs/Admin Task List & Summary (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -694,162 +694,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="67">
     <dxf>
       <font>
         <name val="Eras Medium ITC"/>
@@ -1342,7 +1187,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45628.514425231479" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="136">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45628.522888888889" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="136">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -2769,7 +2614,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2887,86 +2732,86 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="93">
+    <format dxfId="66">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="65">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="64">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="63">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="62">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="61">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="56">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="55">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="54">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="53">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="52">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="51">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="46">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="45">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2975,7 +2820,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="44">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2984,7 +2829,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="43">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2993,7 +2838,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -3002,7 +2847,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="41">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -3011,7 +2856,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -3034,20 +2879,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:H137" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:H137" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:H137"/>
   <sortState ref="A2:F131">
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="61"/>
-    <tableColumn id="1" name="Product" dataDxfId="60"/>
-    <tableColumn id="3" name="Segment" dataDxfId="59"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="58"/>
-    <tableColumn id="4" name="Task" dataDxfId="57"/>
-    <tableColumn id="5" name="Status" dataDxfId="56"/>
-    <tableColumn id="7" name="Comments" dataDxfId="55"/>
-    <tableColumn id="8" name="Deveopler Comment" dataDxfId="54"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="34"/>
+    <tableColumn id="1" name="Product" dataDxfId="33"/>
+    <tableColumn id="3" name="Segment" dataDxfId="32"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="31"/>
+    <tableColumn id="4" name="Task" dataDxfId="30"/>
+    <tableColumn id="5" name="Status" dataDxfId="29"/>
+    <tableColumn id="7" name="Comments" dataDxfId="28"/>
+    <tableColumn id="8" name="Deveopler Comment" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3372,9 +3217,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3656,7 +3501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T137"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
     </sheetView>
@@ -6726,15 +6571,15 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F137">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary (1).xlsx
+++ b/docs/Admin Task List & Summary (1).xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -694,162 +694,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <font>
         <strike val="0"/>
@@ -2614,7 +2459,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2732,86 +2577,86 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="66">
+    <format dxfId="39">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="37">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="36">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="35">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="34">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="29">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="27">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="26">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="25">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="24">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="18">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2820,7 +2665,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="17">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2829,7 +2674,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2838,7 +2683,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2847,7 +2692,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2856,7 +2701,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2879,20 +2724,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:H137" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:H137" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H137"/>
   <sortState ref="A2:F131">
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="34"/>
-    <tableColumn id="1" name="Product" dataDxfId="33"/>
-    <tableColumn id="3" name="Segment" dataDxfId="32"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="31"/>
-    <tableColumn id="4" name="Task" dataDxfId="30"/>
-    <tableColumn id="5" name="Status" dataDxfId="29"/>
-    <tableColumn id="7" name="Comments" dataDxfId="28"/>
-    <tableColumn id="8" name="Deveopler Comment" dataDxfId="27"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="7"/>
+    <tableColumn id="1" name="Product" dataDxfId="6"/>
+    <tableColumn id="3" name="Segment" dataDxfId="5"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="4"/>
+    <tableColumn id="4" name="Task" dataDxfId="3"/>
+    <tableColumn id="5" name="Status" dataDxfId="2"/>
+    <tableColumn id="7" name="Comments" dataDxfId="1"/>
+    <tableColumn id="8" name="Deveopler Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3502,8 +3347,8 @@
   <dimension ref="A1:T137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6257,7 +6102,7 @@
         <v>7</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
@@ -6571,15 +6416,15 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F137">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary (1).xlsx
+++ b/docs/Admin Task List & Summary (1).xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="175">
   <si>
     <t xml:space="preserve">Sr. NO </t>
   </si>
@@ -495,9 +495,6 @@
     <t>MAC Address and Expiry Date not shown in Details after adding new data</t>
   </si>
   <si>
-    <t>Deveopler Comment</t>
-  </si>
-  <si>
     <t>Maybe Fault in ur Data entry</t>
   </si>
   <si>
@@ -559,6 +556,12 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>Developer Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kindly Check this segment in Clinta Apanel </t>
   </si>
 </sst>
 </file>
@@ -2737,7 +2740,7 @@
     <tableColumn id="4" name="Task" dataDxfId="3"/>
     <tableColumn id="5" name="Status" dataDxfId="2"/>
     <tableColumn id="7" name="Comments" dataDxfId="1"/>
-    <tableColumn id="8" name="Deveopler Comment" dataDxfId="0"/>
+    <tableColumn id="8" name="Developer Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3347,8 +3350,8 @@
   <dimension ref="A1:T137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3386,7 +3389,7 @@
         <v>95</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
@@ -3410,7 +3413,7 @@
         <v>96</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75">
@@ -3434,7 +3437,7 @@
         <v>94</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
@@ -3520,7 +3523,7 @@
         <v>99</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75">
@@ -3610,7 +3613,7 @@
         <v>101</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75">
@@ -3634,7 +3637,7 @@
         <v>102</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75">
@@ -3680,7 +3683,7 @@
         <v>103</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75">
@@ -3748,7 +3751,7 @@
         <v>106</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75">
@@ -3794,7 +3797,7 @@
         <v>105</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75">
@@ -3884,7 +3887,7 @@
         <v>105</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75">
@@ -3996,7 +3999,7 @@
         <v>107</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75">
@@ -4196,7 +4199,7 @@
         <v>107</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75">
@@ -4308,7 +4311,7 @@
         <v>107</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75">
@@ -4398,7 +4401,7 @@
         <v>108</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75">
@@ -4422,7 +4425,7 @@
         <v>109</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75">
@@ -4446,7 +4449,7 @@
         <v>140</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="15.75">
@@ -4470,7 +4473,7 @@
         <v>110</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="15.75">
@@ -4494,7 +4497,7 @@
         <v>141</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="15.75">
@@ -4530,7 +4533,7 @@
         <v>65</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
@@ -4540,7 +4543,7 @@
         <v>111</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="15.75">
@@ -4685,7 +4688,9 @@
       <c r="G59" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="60" spans="1:20" ht="15.75">
       <c r="A60" s="1">
@@ -4730,7 +4735,7 @@
         <v>113</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="15.75">
@@ -4754,7 +4759,7 @@
         <v>114</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="15.75">
@@ -4804,7 +4809,7 @@
         <v>115</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75">
@@ -4850,7 +4855,7 @@
         <v>116</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75">
@@ -4874,7 +4879,7 @@
         <v>117</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75">
@@ -4898,7 +4903,7 @@
         <v>118</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75">
@@ -5010,7 +5015,7 @@
         <v>135</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75">
@@ -5188,7 +5193,7 @@
         <v>120</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75">
@@ -5388,7 +5393,7 @@
         <v>132</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75">
@@ -5564,7 +5569,7 @@
         <v>142</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75">
@@ -5610,7 +5615,7 @@
         <v>143</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75">
@@ -5633,7 +5638,9 @@
       <c r="G101" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H101" s="2"/>
+      <c r="H101" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="102" spans="1:8" ht="15.75">
       <c r="A102" s="1">
@@ -5804,7 +5811,7 @@
         <v>149</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75">
@@ -5828,7 +5835,7 @@
         <v>104</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75">
@@ -5896,7 +5903,7 @@
         <v>148</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75">
@@ -6196,7 +6203,7 @@
         <v>151</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75">
@@ -6401,7 +6408,7 @@
         <v>64</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>11</v>

--- a/docs/Admin Task List & Summary (1).xlsx
+++ b/docs/Admin Task List & Summary (1).xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="175">
   <si>
     <t xml:space="preserve">Sr. NO </t>
   </si>
@@ -3351,7 +3351,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5231,11 +5231,9 @@
       <c r="D83" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>9</v>
+      <c r="E83" s="1"/>
+      <c r="F83" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -5253,11 +5251,9 @@
       <c r="D84" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>9</v>
+      <c r="E84" s="1"/>
+      <c r="F84" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>

--- a/docs/Admin Task List & Summary (1).xlsx
+++ b/docs/Admin Task List & Summary (1).xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="175">
   <si>
     <t xml:space="preserve">Sr. NO </t>
   </si>
@@ -594,11 +594,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Eras Medium ITC"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -611,6 +606,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Eras Medium ITC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -659,7 +660,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -670,34 +671,219 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -837,36 +1023,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
@@ -1035,7 +1191,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45628.522888888889" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="136">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45631.740050231485" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="135">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -1072,7 +1228,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Task" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Status" numFmtId="0">
       <sharedItems containsBlank="1" count="3">
@@ -1084,7 +1240,7 @@
     <cacheField name="Comments" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="Deveopler Comment" numFmtId="0">
+    <cacheField name="Developer Comment" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
   </cacheFields>
@@ -1097,7 +1253,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="136">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="135">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -1624,7 +1780,7 @@
     <s v="Customer"/>
     <s v="Listing"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -1654,17 +1810,7 @@
     <s v="Customer"/>
     <s v="Delete"/>
     <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="57"/>
-    <x v="6"/>
-    <s v="Customer"/>
-    <s v="Filters"/>
-    <m/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -1676,7 +1822,7 @@
     <m/>
     <x v="0"/>
     <s v="No webite link in update? Sub-Domain Creation? Expiry?"/>
-    <m/>
+    <s v="Kindly Check this segment in Clinta Apanel "/>
   </r>
   <r>
     <n v="59"/>
@@ -1913,8 +2059,8 @@
     <x v="10"/>
     <s v="ClinTa Extended"/>
     <s v="Filter"/>
-    <s v="Working"/>
-    <x v="1"/>
+    <m/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -1923,8 +2069,8 @@
     <x v="10"/>
     <s v="ClinTa Extended"/>
     <s v="Crud"/>
-    <s v="Working"/>
-    <x v="1"/>
+    <m/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -2096,7 +2242,7 @@
     <m/>
     <x v="0"/>
     <s v="Image not shown even after submitting"/>
-    <m/>
+    <s v="Fixed"/>
   </r>
   <r>
     <n v="101"/>
@@ -2312,7 +2458,7 @@
     <n v="122"/>
     <x v="15"/>
     <s v="Database Compare"/>
-    <s v="Update"/>
+    <s v="List"/>
     <m/>
     <x v="1"/>
     <m/>
@@ -2462,7 +2608,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2580,86 +2726,86 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="39">
+    <format dxfId="66">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="65">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="64">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="63">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="62">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="61">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="56">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="55">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="54">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="53">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="52">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="51">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="46">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="45">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2668,7 +2814,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="44">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2677,7 +2823,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="43">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2686,7 +2832,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2695,7 +2841,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="41">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2704,7 +2850,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2727,20 +2873,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:H137" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H137"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:H136" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A1:H136"/>
   <sortState ref="A2:F131">
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="7"/>
-    <tableColumn id="1" name="Product" dataDxfId="6"/>
-    <tableColumn id="3" name="Segment" dataDxfId="5"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="4"/>
-    <tableColumn id="4" name="Task" dataDxfId="3"/>
-    <tableColumn id="5" name="Status" dataDxfId="2"/>
-    <tableColumn id="7" name="Comments" dataDxfId="1"/>
-    <tableColumn id="8" name="Developer Comment" dataDxfId="0"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="37"/>
+    <tableColumn id="1" name="Product" dataDxfId="36"/>
+    <tableColumn id="3" name="Segment" dataDxfId="35"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="34"/>
+    <tableColumn id="4" name="Task" dataDxfId="33"/>
+    <tableColumn id="5" name="Status" dataDxfId="32"/>
+    <tableColumn id="7" name="Comments" dataDxfId="31"/>
+    <tableColumn id="8" name="Developer Comment" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3067,7 +3213,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3080,261 +3226,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="4.5" customHeight="1"/>
     <row r="3" spans="1:5" ht="18.75">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:5" ht="18.75">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="15">
         <v>3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="15">
         <v>3</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="15">
         <v>15</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="15">
         <v>3</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="15">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="15">
         <v>4</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="15">
         <v>2</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.75">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="15">
         <v>8</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15">
         <v>1</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.75">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="17">
         <v>5</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="14" customFormat="1" ht="18.75">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="18.75">
+      <c r="A12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="18">
         <v>4</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18">
         <v>4</v>
       </c>
       <c r="E12"/>
     </row>
     <row r="13" spans="1:5" ht="18.75">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="17">
         <v>7</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.75">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="15">
         <v>36</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="15">
         <v>10</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.75">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="15">
         <v>8</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="15">
+        <v>9</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
+      <c r="D17" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75">
+      <c r="A18" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="15">
         <v>7</v>
       </c>
-      <c r="C17" s="9">
-        <v>5</v>
-      </c>
-      <c r="D17" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.75">
-      <c r="A18" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="9">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15">
         <v>7</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9">
-        <v>7</v>
-      </c>
     </row>
     <row r="19" spans="1:4" ht="18.75">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9">
+      <c r="B19" s="15">
         <v>2</v>
       </c>
-      <c r="D19" s="9">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="15">
         <v>4</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="15">
         <v>2</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="9">
-        <v>122</v>
-      </c>
-      <c r="C22" s="9">
-        <v>14</v>
-      </c>
-      <c r="D22" s="9">
-        <v>136</v>
+      <c r="B22" s="15">
+        <v>126</v>
+      </c>
+      <c r="C22" s="15">
+        <v>9</v>
+      </c>
+      <c r="D22" s="15">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3347,11 +3493,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T137"/>
+  <dimension ref="A1:T136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3641,29 +3787,29 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75">
-      <c r="A13" s="15">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>126</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="15.75">
-      <c r="A14" s="17">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3687,7 +3833,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75">
-      <c r="A15" s="17">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -3709,7 +3855,7 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="15.75">
-      <c r="A16" s="17">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3731,7 +3877,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="15.75">
-      <c r="A17" s="17">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4405,7 +4551,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="17">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -4453,7 +4599,7 @@
       </c>
     </row>
     <row r="49" spans="1:20" ht="15.75">
-      <c r="A49" s="17">
+      <c r="A49" s="9">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -4583,7 +4729,7 @@
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -4643,34 +4789,38 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:20" ht="15.75">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="59" spans="1:20" ht="15.75">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>86</v>
@@ -4679,68 +4829,68 @@
         <v>67</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>174</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:20" ht="15.75">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H60" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="61" spans="1:20" ht="15.75">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="15.75">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>64</v>
@@ -4749,48 +4899,48 @@
         <v>69</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>172</v>
+        <v>100</v>
+      </c>
+      <c r="H62" s="2"/>
+      <c r="T62">
+        <f ca="1">T62</f>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="15.75">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H63" s="2"/>
-      <c r="T63">
-        <f ca="1">T63</f>
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="15.75">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>72</v>
@@ -4799,50 +4949,50 @@
         <v>73</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>166</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" ht="15.75">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H65" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="66" spans="1:8" ht="15.75">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
@@ -4852,15 +5002,15 @@
         <v>53</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>72</v>
@@ -4869,14 +5019,14 @@
         <v>8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>154</v>
@@ -4884,37 +5034,35 @@
     </row>
     <row r="68" spans="1:8" ht="15.75">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>154</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H68" s="2"/>
     </row>
     <row r="69" spans="1:8" ht="15.75">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -4924,35 +5072,35 @@
         <v>53</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8" ht="15.75">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="1:8" ht="15.75">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>62</v>
@@ -4961,7 +5109,7 @@
         <v>70</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
@@ -4974,7 +5122,7 @@
     </row>
     <row r="72" spans="1:8" ht="15.75">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>62</v>
@@ -4983,20 +5131,22 @@
         <v>70</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H72" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="73" spans="1:8" ht="15.75">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>62</v>
@@ -5005,22 +5155,20 @@
         <v>70</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H73" s="18" t="s">
-        <v>168</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:8" ht="15.75">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>62</v>
@@ -5029,7 +5177,7 @@
         <v>70</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
@@ -5042,16 +5190,16 @@
     </row>
     <row r="75" spans="1:8" ht="15.75">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
@@ -5063,164 +5211,162 @@
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8" ht="15.75">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>100</v>
+      <c r="A76" s="7">
+        <v>76</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8" ht="15.75">
-      <c r="A77" s="15">
-        <v>76</v>
-      </c>
-      <c r="B77" s="15" t="s">
+      <c r="A77" s="7">
+        <v>77</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C77" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D77" s="15" t="s">
+      <c r="C77" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>125</v>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:8" ht="15.75">
-      <c r="A78" s="15">
+      <c r="A78" s="7">
+        <v>78</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.75">
+      <c r="A79" s="7">
+        <v>79</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75">
+      <c r="A80" s="1">
+        <v>80</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75">
+      <c r="A81" s="7">
+        <v>81</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75">
+      <c r="A82" s="1">
+        <v>82</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="1:8" ht="15.75">
-      <c r="A79" s="15">
-        <v>78</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="1:8" ht="15.75">
-      <c r="A80" s="15">
-        <v>79</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="1:8" ht="15.75">
-      <c r="A81" s="1">
-        <v>80</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="C82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.75">
-      <c r="A82" s="15">
-        <v>81</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>121</v>
-      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
     <row r="83" spans="1:8" ht="15.75">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>77</v>
@@ -5229,330 +5375,334 @@
         <v>6</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="15" t="s">
+      <c r="F83" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="1:8" ht="15.75">
-      <c r="A84" s="1">
-        <v>83</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="A84" s="7">
+        <v>84</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G84" s="2"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="1:8" ht="15.75">
-      <c r="A85" s="15">
-        <v>84</v>
-      </c>
-      <c r="B85" s="15" t="s">
+      <c r="A85" s="7">
+        <v>85</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D85" s="15" t="s">
+      <c r="C85" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G85" s="16" t="s">
-        <v>129</v>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="1:8" ht="15.75">
-      <c r="A86" s="15">
-        <v>85</v>
-      </c>
-      <c r="B86" s="15" t="s">
+      <c r="A86" s="7">
+        <v>86</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C86" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D86" s="15" t="s">
+      <c r="C86" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G86" s="16" t="s">
-        <v>128</v>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="H86" s="2"/>
     </row>
     <row r="87" spans="1:8" ht="15.75">
-      <c r="A87" s="15">
-        <v>86</v>
-      </c>
-      <c r="B87" s="15" t="s">
+      <c r="A87" s="7">
+        <v>87</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D87" s="15" t="s">
+      <c r="C87" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G87" s="16" t="s">
-        <v>127</v>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="1:8" ht="15.75">
-      <c r="A88" s="15">
-        <v>87</v>
-      </c>
-      <c r="B88" s="15" t="s">
+      <c r="A88" s="7">
+        <v>88</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C88" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D88" s="15" t="s">
+      <c r="C88" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>130</v>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="H88" s="2"/>
     </row>
     <row r="89" spans="1:8" ht="15.75">
-      <c r="A89" s="15">
-        <v>88</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="H89" s="2"/>
+      <c r="A89" s="1">
+        <v>89</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="90" spans="1:8" ht="15.75">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
     </row>
     <row r="91" spans="1:8" ht="15.75">
-      <c r="A91" s="1">
-        <v>90</v>
-      </c>
-      <c r="B91" s="4" t="s">
+      <c r="A91" s="7">
+        <v>91</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="C91" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75">
+      <c r="A92" s="7">
+        <v>92</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-    </row>
-    <row r="92" spans="1:8" ht="15.75">
-      <c r="A92" s="15">
-        <v>91</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D92" s="15" t="s">
+      <c r="E92" s="7"/>
+      <c r="F92" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.75">
+      <c r="A93" s="7">
+        <v>93</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H92" s="2"/>
-    </row>
-    <row r="93" spans="1:8" ht="15.75">
-      <c r="A93" s="15">
-        <v>92</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D93" s="15" t="s">
+      <c r="E93" s="7"/>
+      <c r="F93" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.75">
+      <c r="A94" s="7">
+        <v>94</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="1:8" ht="15.75">
+      <c r="A95" s="7">
+        <v>95</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G93" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="H93" s="2"/>
-    </row>
-    <row r="94" spans="1:8" ht="15.75">
-      <c r="A94" s="15">
-        <v>93</v>
-      </c>
-      <c r="B94" s="15" t="s">
+      <c r="E95" s="7"/>
+      <c r="F95" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:8" ht="15.75">
+      <c r="A96" s="7">
+        <v>96</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C94" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D94" s="15" t="s">
+      <c r="C96" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="1:8" ht="15.75">
+      <c r="A97" s="1">
+        <v>97</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="H94" s="2"/>
-    </row>
-    <row r="95" spans="1:8" ht="15.75">
-      <c r="A95" s="15">
-        <v>94</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="H95" s="2"/>
-    </row>
-    <row r="96" spans="1:8" ht="15.75">
-      <c r="A96" s="15">
-        <v>95</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G96" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H96" s="2"/>
-    </row>
-    <row r="97" spans="1:8" ht="15.75">
-      <c r="A97" s="15">
-        <v>96</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G97" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H97" s="2"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="98" spans="1:8" ht="15.75">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>11</v>
@@ -5562,23 +5712,21 @@
         <v>53</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>163</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H98" s="2"/>
     </row>
     <row r="99" spans="1:8" ht="15.75">
       <c r="A99" s="1">
-        <v>98</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D99" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99" s="1"/>
@@ -5586,25 +5734,27 @@
         <v>53</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H99" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="100" spans="1:8" ht="15.75">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1" t="s">
+      <c r="E100" s="2"/>
+      <c r="F100" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G100" s="2" t="s">
@@ -5616,31 +5766,27 @@
     </row>
     <row r="101" spans="1:8" ht="15.75">
       <c r="A101" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E101" s="2"/>
+      <c r="E101" s="1"/>
       <c r="F101" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
     </row>
     <row r="102" spans="1:8" ht="15.75">
       <c r="A102" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>28</v>
@@ -5649,7 +5795,7 @@
         <v>30</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="2" t="s">
@@ -5660,27 +5806,29 @@
     </row>
     <row r="103" spans="1:8" ht="15.75">
       <c r="A103" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E103" s="1"/>
-      <c r="F103" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G103" s="2"/>
+      <c r="F103" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="H103" s="2"/>
     </row>
     <row r="104" spans="1:8" ht="15.75">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>28</v>
@@ -5689,48 +5837,48 @@
         <v>31</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H104" s="2"/>
     </row>
     <row r="105" spans="1:8" ht="15.75">
       <c r="A105" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="H105" s="2"/>
     </row>
     <row r="106" spans="1:8" ht="15.75">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>11</v>
@@ -5740,19 +5888,19 @@
         <v>53</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="H106" s="2"/>
     </row>
     <row r="107" spans="1:8" ht="15.75">
       <c r="A107" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -5761,34 +5909,36 @@
       <c r="F107" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G107" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="G107" s="2"/>
       <c r="H107" s="2"/>
     </row>
     <row r="108" spans="1:8" ht="15.75">
       <c r="A108" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
+      <c r="G108" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="109" spans="1:8" ht="15.75">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>14</v>
@@ -5796,15 +5946,15 @@
       <c r="C109" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E109" s="1"/>
+      <c r="D109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" s="2"/>
       <c r="F109" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>154</v>
@@ -5812,7 +5962,7 @@
     </row>
     <row r="110" spans="1:8" ht="15.75">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>14</v>
@@ -5821,22 +5971,20 @@
         <v>16</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>154</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H110" s="2"/>
     </row>
     <row r="111" spans="1:8" ht="15.75">
       <c r="A111" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>14</v>
@@ -5845,7 +5993,7 @@
         <v>16</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="1" t="s">
@@ -5858,7 +6006,7 @@
     </row>
     <row r="112" spans="1:8" ht="15.75">
       <c r="A112" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>14</v>
@@ -5867,20 +6015,22 @@
         <v>16</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H112" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="113" spans="1:8" ht="15.75">
       <c r="A113" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>14</v>
@@ -5888,56 +6038,52 @@
       <c r="C113" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E113" s="2"/>
+      <c r="D113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" s="1"/>
       <c r="F113" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>154</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="H113" s="2"/>
     </row>
     <row r="114" spans="1:8" ht="15.75">
       <c r="A114" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>147</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G114" s="2"/>
       <c r="H114" s="2"/>
     </row>
     <row r="115" spans="1:8" ht="15.75">
       <c r="A115" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E115" s="1"/>
+      <c r="E115" s="2"/>
       <c r="F115" s="1" t="s">
         <v>9</v>
       </c>
@@ -5946,13 +6092,13 @@
     </row>
     <row r="116" spans="1:8" ht="15.75">
       <c r="A116" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>11</v>
@@ -5966,27 +6112,29 @@
     </row>
     <row r="117" spans="1:8" ht="15.75">
       <c r="A117" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G117" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="H117" s="2"/>
     </row>
     <row r="118" spans="1:8" ht="15.75">
       <c r="A118" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>14</v>
@@ -5994,10 +6142,10 @@
       <c r="C118" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E118" s="1"/>
+      <c r="D118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" s="2"/>
       <c r="F118" s="1" t="s">
         <v>53</v>
       </c>
@@ -6008,7 +6156,7 @@
     </row>
     <row r="119" spans="1:8" ht="15.75">
       <c r="A119" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>14</v>
@@ -6017,7 +6165,7 @@
         <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="1" t="s">
@@ -6030,7 +6178,7 @@
     </row>
     <row r="120" spans="1:8" ht="15.75">
       <c r="A120" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>14</v>
@@ -6039,113 +6187,113 @@
         <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H120" s="2"/>
     </row>
     <row r="121" spans="1:8" ht="15.75">
       <c r="A121" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H121" s="2"/>
     </row>
     <row r="122" spans="1:8" ht="15.75">
       <c r="A122" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G122" s="2"/>
       <c r="H122" s="2"/>
     </row>
     <row r="123" spans="1:8" ht="15.75">
       <c r="A123" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
     </row>
     <row r="124" spans="1:8" ht="15.75">
       <c r="A124" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G124" s="2"/>
+      <c r="G124" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="H124" s="2"/>
     </row>
     <row r="125" spans="1:8" ht="15.75">
       <c r="A125" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
@@ -6158,13 +6306,13 @@
     </row>
     <row r="126" spans="1:8" ht="15.75">
       <c r="A126" s="1">
-        <v>125</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>6</v>
+        <v>126</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>11</v>
@@ -6174,13 +6322,15 @@
         <v>53</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H126" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="127" spans="1:8" ht="15.75">
       <c r="A127" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>26</v>
@@ -6189,33 +6339,31 @@
         <v>27</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H127" s="2"/>
     </row>
     <row r="128" spans="1:8" ht="15.75">
       <c r="A128" s="1">
-        <v>127</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128" s="2"/>
       <c r="F128" s="1" t="s">
         <v>53</v>
       </c>
@@ -6226,7 +6374,7 @@
     </row>
     <row r="129" spans="1:8" ht="15.75">
       <c r="A129" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>78</v>
@@ -6235,7 +6383,7 @@
         <v>79</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="1" t="s">
@@ -6248,7 +6396,7 @@
     </row>
     <row r="130" spans="1:8" ht="15.75">
       <c r="A130" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>78</v>
@@ -6257,7 +6405,7 @@
         <v>79</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="1" t="s">
@@ -6270,16 +6418,16 @@
     </row>
     <row r="131" spans="1:8" ht="15.75">
       <c r="A131" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>84</v>
+        <v>14</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="1" t="s">
@@ -6292,7 +6440,7 @@
     </row>
     <row r="132" spans="1:8" ht="15.75">
       <c r="A132" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>14</v>
@@ -6301,7 +6449,7 @@
         <v>20</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="1" t="s">
@@ -6314,7 +6462,7 @@
     </row>
     <row r="133" spans="1:8" ht="15.75">
       <c r="A133" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>14</v>
@@ -6323,7 +6471,7 @@
         <v>20</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="1" t="s">
@@ -6336,35 +6484,33 @@
     </row>
     <row r="134" spans="1:8" ht="15.75">
       <c r="A134" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G134" s="2"/>
       <c r="H134" s="2"/>
     </row>
     <row r="135" spans="1:8" ht="15.75">
       <c r="A135" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>11</v>
@@ -6378,61 +6524,41 @@
     </row>
     <row r="136" spans="1:8" ht="15.75">
       <c r="A136" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E136" s="2"/>
-      <c r="F136" s="1" t="s">
-        <v>9</v>
+      <c r="F136" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
     </row>
-    <row r="137" spans="1:8" ht="15.75">
-      <c r="A137" s="1">
-        <v>136</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F137">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F136">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H73" r:id="rId1"/>
+    <hyperlink ref="H72" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/docs/Admin Task List & Summary (1).xlsx
+++ b/docs/Admin Task List & Summary (1).xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -676,9 +676,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -693,197 +690,15 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1021,6 +836,36 @@
         <name val="Eras Medium ITC"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2608,7 +2453,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2726,86 +2571,86 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="66">
+    <format dxfId="39">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="37">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="36">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="35">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="34">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="29">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="27">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="26">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="25">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="24">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="18">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2814,7 +2659,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="17">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2823,7 +2668,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2832,7 +2677,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2841,7 +2686,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2850,7 +2695,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2873,20 +2718,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:H136" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:H136" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H136"/>
   <sortState ref="A2:F131">
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="37"/>
-    <tableColumn id="1" name="Product" dataDxfId="36"/>
-    <tableColumn id="3" name="Segment" dataDxfId="35"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="34"/>
-    <tableColumn id="4" name="Task" dataDxfId="33"/>
-    <tableColumn id="5" name="Status" dataDxfId="32"/>
-    <tableColumn id="7" name="Comments" dataDxfId="31"/>
-    <tableColumn id="8" name="Developer Comment" dataDxfId="30"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="7"/>
+    <tableColumn id="1" name="Product" dataDxfId="6"/>
+    <tableColumn id="3" name="Segment" dataDxfId="5"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="4"/>
+    <tableColumn id="4" name="Task" dataDxfId="3"/>
+    <tableColumn id="5" name="Status" dataDxfId="2"/>
+    <tableColumn id="7" name="Comments" dataDxfId="1"/>
+    <tableColumn id="8" name="Developer Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3226,260 +3071,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="4.5" customHeight="1"/>
     <row r="3" spans="1:5" ht="18.75">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="18.75">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>3</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>3</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>15</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>3</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>4</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>2</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.75">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>8</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14">
         <v>1</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.75">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>5</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="6" customFormat="1" ht="18.75">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>4</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17">
         <v>4</v>
       </c>
       <c r="E12"/>
     </row>
     <row r="13" spans="1:5" ht="18.75">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>7</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.75">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>36</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>10</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.75">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>8</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>9</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>2</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>7</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>2</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>4</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>2</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>126</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <v>9</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>135</v>
       </c>
     </row>
@@ -3496,8 +3341,8 @@
   <dimension ref="A1:T136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="A6:XFD6"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4749,7 +4594,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -4769,7 +4614,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -6545,15 +6390,15 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F136">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary (1).xlsx
+++ b/docs/Admin Task List & Summary (1).xlsx
@@ -3342,7 +3342,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54:F56"/>
+      <selection pane="bottomLeft" activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/docs/Admin Task List & Summary (1).xlsx
+++ b/docs/Admin Task List & Summary (1).xlsx
@@ -3342,7 +3342,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F136" sqref="F136"/>
+      <selection pane="bottomLeft" activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
@@ -6362,7 +6362,7 @@
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>

--- a/docs/Admin Task List & Summary (1).xlsx
+++ b/docs/Admin Task List & Summary (1).xlsx
@@ -3341,8 +3341,8 @@
   <dimension ref="A1:T136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F130" sqref="F130"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -5950,7 +5950,7 @@
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
